--- a/PCB-SMD/Dossier -JLCPCB/ToneGenerator_BOM.xlsx
+++ b/PCB-SMD/Dossier -JLCPCB/ToneGenerator_BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="51">
   <si>
     <t xml:space="preserve">Item</t>
   </si>
@@ -130,7 +130,7 @@
     <t xml:space="preserve">100mW Thick Film Resistors 75V ±1% ±200ppm/℃ 100Ω 0603  Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
-    <t xml:space="preserve">R7</t>
+    <t xml:space="preserve">R7, R8</t>
   </si>
   <si>
     <t xml:space="preserve">0805W8F4701T5E</t>
@@ -140,9 +140,6 @@
   </si>
   <si>
     <t xml:space="preserve">125mW Thick Film Resistors 150V ±100ppm/℃ ±1% 4.7kΩ 0805  Chip Resistor - Surface Mount ROHS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R8</t>
   </si>
   <si>
     <t xml:space="preserve">R100,R108,R102,R105,
@@ -423,7 +420,7 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.859375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -652,27 +649,27 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="8" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>15</v>
@@ -682,66 +679,37 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>41</v>
+      <c r="B9" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C9" s="8" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
